--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393101.084915031</v>
+        <v>1468630.754579837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59957183215651</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>91.82580793753526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>34.60269854636939</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.9620394059554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.04013104786041</v>
       </c>
       <c r="T7" t="n">
-        <v>54.70191565295244</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>99.72812891922121</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>49.39979996450003</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>38.73452730914783</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>121.4752263841247</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.142654714013</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.3419076393841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>114.1255415089695</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>174.4534201155202</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.61524188852295</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>174.1912293389414</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.5849063206217</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>80.96586895946433</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>68.51867274638114</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>50.6627646478189</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4590648403945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>98.30359535938426</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.16437124433155</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1352.114858251602</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>966.3266056533573</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>555.3407008637498</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>137.3768927619367</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>137.3768927619367</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.196870264314</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2486.019382578484</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2267.384715550547</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2267.384715550547</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>1936.321828206976</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.080703211961</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="T7" t="n">
-        <v>643.457604804549</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323009</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323009</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2596.413607261435</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2342.651821899526</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2011.588934555955</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1658.820279285841</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>1658.820279285841</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>576.0098161872033</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>576.0098161872033</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>576.0098161872033</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>576.0098161872033</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>576.0098161872033</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5084,7 +5086,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5239,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="14">
@@ -5306,7 +5308,7 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>159.1396882805852</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>570.0299571250978</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L15" t="n">
-        <v>816.7950850315617</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,7 +5551,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4008.385884903439</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4287.925950122136</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1383.637945801368</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1159.852530590873</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>870.7238918044317</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>616.0394035985448</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W22" t="n">
-        <v>616.0394035985448</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="X22" t="n">
-        <v>616.0394035985448</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>3606.045341414585</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,28 +5980,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,7 +6013,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.499100520942</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.499100520942</v>
+        <v>3578.842145943457</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>391.6040140015124</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.133756677158</v>
+        <v>3925.360448591584</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677158</v>
+        <v>3925.360448591584</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677158</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6406,28 +6408,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>4150.123307575175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>4150.123307575175</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W28" t="n">
-        <v>4150.123307575175</v>
+        <v>4327.801492565353</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.133756677158</v>
+        <v>4327.801492565353</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.133756677158</v>
+        <v>4107.008913421823</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.057461100067</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1016.928822313625</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1016.928822313625</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6704,13 +6706,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>743.445741020385</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677749</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>1023.439203208485</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3895.563459493836</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>3726.627276565929</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596854</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596854</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>4298.004503467606</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>4077.211924324076</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.130855347408</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.7842838544522</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>20.63789864135533</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>234.4116509503173</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53204524669962</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8749102765748</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.5670006750241</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>140.2723743590792</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.2427457127107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>83.79526847463374</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>112.0695782210708</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2167382934144</v>
+        <v>61.34209567542497</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>112.046123059636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>10.93809201596929</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>140.5816920989249</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.91528990018803</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.27839330891666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>116.5840564508089</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.12558851170024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>50.3118776588281</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>112.329197219046</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,10 +25845,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>95.22770912022229</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940305.1042799111</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="H2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="I2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26433,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26491,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
         <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141179</v>
+        <v>-189638.5513141181</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.4851627777</v>
       </c>
       <c r="G6" t="n">
         <v>335521.4851627778</v>
@@ -26540,28 +26542,28 @@
         <v>335521.4851627778</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627777</v>
+        <v>335521.4851627778</v>
       </c>
       <c r="J6" t="n">
         <v>159098.2659701849</v>
       </c>
       <c r="K6" t="n">
+        <v>335521.485162778</v>
+      </c>
+      <c r="L6" t="n">
         <v>335521.4851627778</v>
       </c>
-      <c r="L6" t="n">
-        <v>335521.4851627779</v>
-      </c>
       <c r="M6" t="n">
-        <v>200720.4699289408</v>
+        <v>200720.4699289407</v>
       </c>
       <c r="N6" t="n">
         <v>335521.4851627778</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.4851627779</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627777</v>
+        <v>335521.485162778</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541001</v>
@@ -26759,10 +26761,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>69.33174441270474</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>81.37511273779134</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>194.6971903990557</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>19.87570402844232</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.2758992500982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>198.1054079021585</v>
       </c>
       <c r="T7" t="n">
-        <v>170.3331898051318</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.7201914384366</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>320.331300713969</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>117.4363615326473</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>90.67031256589418</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.54807759626195</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560242</v>
@@ -35735,13 +35737,13 @@
         <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>567.60622434833</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35963,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,13 +35974,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782243</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>255.4503488645141</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>268.4018009259947</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468630.754579837</v>
+        <v>1461613.739688125</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800613</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665976</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>220.247286499951</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>376.9997425865528</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.60269854636939</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.04013104786041</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>99.44420492154106</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>21.35358115462532</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>49.39979996450003</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>38.73452730914783</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053113</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384939</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>161.4046520073149</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.142654714013</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113093</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>49.38162151975177</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273247</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>26.97444673954864</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>104.407508180329</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>281.9740713710869</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>174.4534201155202</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>10.34713777957052</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.5849063206217</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>62.40960669546921</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
-        <v>80.96586895946433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.51867274638114</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>50.6627646478189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>126.3821221046882</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.16437124433155</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>100.375923930264</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>847.844772492695</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2662.196870264314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2486.019382578484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2267.384715550547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.384715550547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.321828206976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.553172936862</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1210.087414675782</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>429.8456263007749</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1171.958579074281</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>813.6928804675301</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>813.6928804675301</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>402.7069756779226</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.304160219349</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.304160219349</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C10" t="n">
-        <v>229.3976778824716</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="D10" t="n">
-        <v>229.3976778824716</v>
+        <v>548.5954256477205</v>
       </c>
       <c r="E10" t="n">
-        <v>229.3976778824716</v>
+        <v>400.6823320653274</v>
       </c>
       <c r="F10" t="n">
-        <v>229.3976778824716</v>
+        <v>253.792384567417</v>
       </c>
       <c r="G10" t="n">
-        <v>229.3976778824716</v>
+        <v>84.79258430574944</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574944</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574944</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5026,64 +5026,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277023</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341657</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126626</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609637</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550768</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>441.9005583181162</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550594</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610183</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003432</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405188</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155804</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805385</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>177.1795914149522</v>
       </c>
       <c r="K15" t="n">
-        <v>412.607977814708</v>
+        <v>326.2492756170116</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211719</v>
+        <v>940.1463453738995</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011334</v>
+        <v>1247.46647865386</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>293.9874647357231</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>147.0975172378128</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609637</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550768</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>441.9005583181162</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550594</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610183</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003432</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405188</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155804</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805385</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822377</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277023</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341657</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141264</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278276</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580935</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.4640073588198</v>
+        <v>729.1316371486755</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207686</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207686</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1393.454141082819</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1393.454141082819</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1138.769652876932</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>1138.769652876932</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>910.7801019789152</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>910.7801019789152</v>
       </c>
     </row>
     <row r="20">
@@ -5734,49 +5734,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3606.045341414585</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C22" t="n">
-        <v>3606.045341414585</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="W22" t="n">
-        <v>3606.045341414585</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X22" t="n">
-        <v>3606.045341414585</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y22" t="n">
-        <v>3606.045341414585</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>339.7502131046299</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001781</v>
+        <v>953.6472828615179</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>1722.015429253978</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164473</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.725934227851</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985004</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086987</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943457</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6244,25 +6244,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3925.360448591584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>3925.360448591584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.243809179248</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596855</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>4327.801492565353</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X28" t="n">
-        <v>4327.801492565353</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y28" t="n">
-        <v>4107.008913421823</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1306.057461100067</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.928822313625</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1016.928822313625</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>727.5116522766643</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>727.5116522766643</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.5116522766643</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>893.5623804327207</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>893.5623804327207</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>743.445741020385</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1075.21084526296</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>1075.21084526296</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.439203208485</v>
+        <v>672.4909068465488</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352015</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208485</v>
+        <v>854.1393716767885</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.130855347408</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.8811773957805</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>413.8811773957805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>413.8811773957805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>413.8811773957805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>413.8811773957805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W43" t="n">
-        <v>1044.311772267568</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>816.3222213695503</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>595.5296422260202</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1484.03077229167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1484.03077229167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.03077229167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>1484.03077229167</v>
+        <v>973.8210231111786</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>973.8210231111786</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y46" t="n">
         <v>745.8314722131613</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165172</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301950427</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>234.4116509503173</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>15.83804904623432</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504591</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119928</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305798</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.986500349943526e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.088916456062663</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750241</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.469669410260394e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>117.1119469436258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.554934538551606e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>140.2723743590792</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>117.1400528780603</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4.26328102749045</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>112.0695782210708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542497</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.7905055442575</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.93809201596929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>163.3000486935679</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
-        <v>140.5816920989249</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>77.91528990018803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>116.5840564508089</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>92.20253124740661</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.29904972659767</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>112.329197219046</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>95.22770912022229</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>151.761719393564</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799103</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799103</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799103</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983646</v>
       </c>
       <c r="F2" t="n">
+        <v>449683.4186983646</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983645</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.4186983649</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.418698365</v>
       </c>
-      <c r="G2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="M2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983653</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.521271759789671e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925939</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871648</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871648</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871648</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
+        <v>223607.0718220291</v>
+      </c>
+      <c r="D6" t="n">
         <v>223607.071822029</v>
       </c>
-      <c r="D6" t="n">
-        <v>223607.0718220291</v>
-      </c>
       <c r="E6" t="n">
-        <v>-189638.5513141181</v>
+        <v>-190613.1425738386</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627777</v>
+        <v>334546.8939030558</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030558</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030555</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030559</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701849</v>
+        <v>158123.6747104624</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.485162778</v>
+        <v>334546.893903056</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="M6" t="n">
-        <v>200720.4699289407</v>
+        <v>199745.8786692196</v>
       </c>
       <c r="N6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.485162778</v>
+        <v>334546.8939030563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,19 +26792,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990155</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990155</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>186.6287592417604</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>53.30008710312387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37511273779134</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>29.87630315515861</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.87570402844232</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>198.1054079021585</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>187.0787934150499</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>392.4305888661697</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>320.331300713969</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>117.4363615326473</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800587</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145293</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197441064</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N15" t="n">
-        <v>567.60622434833</v>
+        <v>812.5369477415657</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490634</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415654</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>222.9314639777583</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507365</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109148</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081193</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009967</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461613.739688125</v>
+        <v>1466553.002537157</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800613</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665976</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>220.247286499951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>376.9997425865528</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>87.81575107239195</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.715333384834437</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>99.44420492154106</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>21.35358115462532</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>107.0735227013103</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053113</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.42715891998061</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883384939</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>2.499196759841529</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.4046520073149</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113093</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.38162151975177</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273247</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014456</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>104.407508180329</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>176.219319815899</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9740713710869</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>78.46129407658275</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10.34713777957052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>62.40960669546921</v>
+        <v>215.6214853475421</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>75.8096094545451</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>89.84971271248617</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>174.7430637258772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.3821221046882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.4441331226389</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>129.4106056624395</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.64843562452423</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.9087606441048</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>100.375923930264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.807289433107</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>847.844772492695</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>847.844772492695</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>847.844772492695</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3133028825996</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3133028825996</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625995</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685583</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="D5" t="n">
-        <v>1333.375306685583</v>
+        <v>939.4199180692183</v>
       </c>
       <c r="E5" t="n">
-        <v>1333.375306685583</v>
+        <v>553.631665470974</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>142.6457606813664</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625995</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.921096014692</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.958579074281</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>813.6928804675301</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>813.6928804675301</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>402.7069756779226</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.921096014692</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.921096014692</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600563</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600563</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477205</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653274</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>253.792384567417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574944</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574944</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574944</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600563</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.708168625643</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277023</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341657</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126626</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.87805691801</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136707</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.2520934878766</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>260.2520934878766</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>260.2520934878766</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>260.2520934878766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>260.2520934878766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347405</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550768</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181162</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181162</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181162</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550594</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610183</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003432</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405188</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155804</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805385</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590528</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614716</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>177.1795914149522</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>326.2492756170116</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738995</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.46647865386</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.87805691801</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136707</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.9005583181162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>441.9005583181162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>441.9005583181162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>293.9874647357231</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>147.0975172378128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347405</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550768</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181162</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9005583181162</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550594</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610183</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003432</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405188</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155804</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805385</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822377</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590528</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614716</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.708168625643</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277023</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341657</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141264</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278276</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580935</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.1316371486755</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207686</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207686</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471176</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1393.454141082819</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1393.454141082819</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1138.769652876932</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1138.769652876932</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>910.7801019789152</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.7801019789152</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277025</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341659</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653861</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.87805691801</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136707</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5910,52 +5910,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262958</v>
+        <v>1120.996947528102</v>
       </c>
       <c r="U22" t="n">
-        <v>790.3885509487287</v>
+        <v>1120.996947528102</v>
       </c>
       <c r="V22" t="n">
-        <v>790.3885509487287</v>
+        <v>866.3124593222151</v>
       </c>
       <c r="W22" t="n">
-        <v>790.3885509487287</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X22" t="n">
-        <v>562.3990000507114</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3990000507114</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="23">
@@ -5971,49 +5971,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256432</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K24" t="n">
-        <v>339.7502131046299</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615179</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253978</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.87805691801</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136707</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262958</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262958</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.759190940159</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.759190940159</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X25" t="n">
-        <v>836.769640042142</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273991</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401273991</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>780.9880333642989</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.1954542207687</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,19 +6542,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>320.6824020435953</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>173.7924545456849</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,10 +6724,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
         <v>2123.441607278215</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6891,19 +6891,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6943,25 +6943,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>672.4909068465488</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>503.5547239186419</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186419</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362488</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.787631771461</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>981.7980808734433</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>854.1393716767885</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,7 +7271,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>531.109187020113</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>380.9925476077773</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>380.9925476077773</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>380.9925476077773</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>212.8172259275979</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352015</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.513998854602</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>678.2851114370362</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>678.2851114370362</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>530.3720178546431</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>383.4820703567327</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>215.3067486765533</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X46" t="n">
-        <v>745.8314722131613</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>847.2212943649431</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165172</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>38.86002301950427</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.83804904623432</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544524</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504591</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229635</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119928</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K24" t="n">
-        <v>52.49733361305798</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.986500349943526e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>177.3327834220958</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>5.088916456062663</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.469669410260394e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>117.1119469436258</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.554934538551606e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>117.1400528780603</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.32824124249021</v>
       </c>
       <c r="U22" t="n">
-        <v>4.26328102749045</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>143.0862669818065</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>241.7905055442575</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>163.3000486935679</v>
+        <v>10.088170041495</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>90.68395900883249</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>58.76576030572619</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.20253124740661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>34.46969524489721</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.29904972659767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>228.5889167740531</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>32.00506772343132</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26082,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>151.761719393564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940305.1042799103</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799103</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799103</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983646</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983646</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983645</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983649</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768944</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.521271759789671e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925939</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338367</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
         <v>223607.071822029</v>
       </c>
       <c r="E6" t="n">
-        <v>-190613.1425738386</v>
+        <v>-189736.0104400904</v>
       </c>
       <c r="F6" t="n">
-        <v>334546.8939030558</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="G6" t="n">
-        <v>334546.8939030558</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="H6" t="n">
-        <v>334546.8939030555</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="I6" t="n">
-        <v>334546.8939030559</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="J6" t="n">
-        <v>158123.6747104624</v>
+        <v>159000.8068442128</v>
       </c>
       <c r="K6" t="n">
-        <v>334546.893903056</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="L6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="M6" t="n">
-        <v>199745.8786692196</v>
+        <v>200623.0108029686</v>
       </c>
       <c r="N6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="O6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="P6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540986</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,19 +26792,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370122</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990155</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990158</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990155</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>186.6287592417604</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>27.10427099018233</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.87630315515861</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>325.968418948403</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.1166467971029</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>187.0787934150499</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>392.4305888661697</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>67.34219010766122</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>14.65885272800587</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1574944321142</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361477</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337658</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961198</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565507</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540874</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104634</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127052</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358977</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458542</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361475</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298621</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337656</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892232</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351798</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349773</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490637</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879387</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560236</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004653</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145293</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411074</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315241</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507373</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349773</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.77020197441064</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879387</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504655</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415657</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315241</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507373</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415073</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095146</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349768</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490634</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560235</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415654</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178369</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>222.9314639777583</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507365</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556532</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206024</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718745</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109148</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879387</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734289</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.093414931524</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081193</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490637</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0727722009967</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594828</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004653</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.093414931524</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507368</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
